--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Gnai2-Cav1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H2">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J2">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>81.0889055401526</v>
+        <v>490.031855</v>
       </c>
       <c r="N2">
-        <v>81.0889055401526</v>
+        <v>1470.095565</v>
       </c>
       <c r="O2">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677429</v>
       </c>
       <c r="P2">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677431</v>
       </c>
       <c r="Q2">
-        <v>11785.69392689202</v>
+        <v>79580.82875960594</v>
       </c>
       <c r="R2">
-        <v>11785.69392689202</v>
+        <v>716227.4588364534</v>
       </c>
       <c r="S2">
-        <v>0.09560433535202741</v>
+        <v>0.2614638357710384</v>
       </c>
       <c r="T2">
-        <v>0.09560433535202741</v>
+        <v>0.2614638357710384</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H3">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J3">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>60.3306217132912</v>
+        <v>62.79306433333334</v>
       </c>
       <c r="N3">
-        <v>60.3306217132912</v>
+        <v>188.379193</v>
       </c>
       <c r="O3">
-        <v>0.1886383657658251</v>
+        <v>0.0856802950924601</v>
       </c>
       <c r="P3">
-        <v>0.1886383657658251</v>
+        <v>0.08568029509246011</v>
       </c>
       <c r="Q3">
-        <v>8768.625463564471</v>
+        <v>10197.54950420911</v>
       </c>
       <c r="R3">
-        <v>8768.625463564471</v>
+        <v>91777.94553788197</v>
       </c>
       <c r="S3">
-        <v>0.07113018669881709</v>
+        <v>0.03350417996889389</v>
       </c>
       <c r="T3">
-        <v>0.07113018669881709</v>
+        <v>0.0335041799688939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H4">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I4">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J4">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.594726305318921</v>
+        <v>0.5977846666666666</v>
       </c>
       <c r="N4">
-        <v>0.594726305318921</v>
+        <v>1.793354</v>
       </c>
       <c r="O4">
-        <v>0.001859556476087046</v>
+        <v>0.0008156691696053909</v>
       </c>
       <c r="P4">
-        <v>0.001859556476087046</v>
+        <v>0.000815669169605391</v>
       </c>
       <c r="Q4">
-        <v>86.43922566311342</v>
+        <v>97.07980962404599</v>
       </c>
       <c r="R4">
-        <v>86.43922566311342</v>
+        <v>873.7182866164139</v>
       </c>
       <c r="S4">
-        <v>0.0007011860963917921</v>
+        <v>0.0003189569623219255</v>
       </c>
       <c r="T4">
-        <v>0.0007011860963917921</v>
+        <v>0.0003189569623219256</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>145.342865936896</v>
+        <v>162.399297</v>
       </c>
       <c r="H5">
-        <v>145.342865936896</v>
+        <v>487.197891</v>
       </c>
       <c r="I5">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="J5">
-        <v>0.3770716863987139</v>
+        <v>0.3910371682630009</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>177.807334527859</v>
+        <v>179.453674</v>
       </c>
       <c r="N5">
-        <v>177.807334527859</v>
+        <v>538.361022</v>
       </c>
       <c r="O5">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701915</v>
       </c>
       <c r="P5">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701916</v>
       </c>
       <c r="Q5">
-        <v>25843.02758487943</v>
+        <v>29143.15050166718</v>
       </c>
       <c r="R5">
-        <v>25843.02758487943</v>
+        <v>262288.3545150046</v>
       </c>
       <c r="S5">
-        <v>0.2096359782514776</v>
+        <v>0.0957501955607467</v>
       </c>
       <c r="T5">
-        <v>0.2096359782514776</v>
+        <v>0.09575019556074671</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H6">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I6">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J6">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.0889055401526</v>
+        <v>490.031855</v>
       </c>
       <c r="N6">
-        <v>81.0889055401526</v>
+        <v>1470.095565</v>
       </c>
       <c r="O6">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677429</v>
       </c>
       <c r="P6">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677431</v>
       </c>
       <c r="Q6">
-        <v>5302.012847302241</v>
+        <v>32056.59255681813</v>
       </c>
       <c r="R6">
-        <v>5302.012847302241</v>
+        <v>288509.3330113631</v>
       </c>
       <c r="S6">
-        <v>0.04300938217457284</v>
+        <v>0.1053223468804761</v>
       </c>
       <c r="T6">
-        <v>0.04300938217457284</v>
+        <v>0.1053223468804761</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H7">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I7">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J7">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>60.3306217132912</v>
+        <v>62.79306433333334</v>
       </c>
       <c r="N7">
-        <v>60.3306217132912</v>
+        <v>188.379193</v>
       </c>
       <c r="O7">
-        <v>0.1886383657658251</v>
+        <v>0.0856802950924601</v>
       </c>
       <c r="P7">
-        <v>0.1886383657658251</v>
+        <v>0.08568029509246011</v>
       </c>
       <c r="Q7">
-        <v>3944.728681178344</v>
+        <v>4107.756788031128</v>
       </c>
       <c r="R7">
-        <v>3944.728681178344</v>
+        <v>36969.81109228014</v>
       </c>
       <c r="S7">
-        <v>0.03199923280271271</v>
+        <v>0.01349608772556916</v>
       </c>
       <c r="T7">
-        <v>0.03199923280271271</v>
+        <v>0.01349608772556916</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H8">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I8">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J8">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.594726305318921</v>
+        <v>0.5977846666666666</v>
       </c>
       <c r="N8">
-        <v>0.594726305318921</v>
+        <v>1.793354</v>
       </c>
       <c r="O8">
-        <v>0.001859556476087046</v>
+        <v>0.0008156691696053909</v>
       </c>
       <c r="P8">
-        <v>0.001859556476087046</v>
+        <v>0.000815669169605391</v>
       </c>
       <c r="Q8">
-        <v>38.88628771624163</v>
+        <v>39.10549753147511</v>
       </c>
       <c r="R8">
-        <v>38.88628771624163</v>
+        <v>351.949477783276</v>
       </c>
       <c r="S8">
-        <v>0.0003154415611401657</v>
+        <v>0.0001284816147768525</v>
       </c>
       <c r="T8">
-        <v>0.0003154415611401657</v>
+        <v>0.0001284816147768526</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.38518200466839</v>
+        <v>65.41736466666667</v>
       </c>
       <c r="H9">
-        <v>65.38518200466839</v>
+        <v>196.252094</v>
       </c>
       <c r="I9">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="J9">
-        <v>0.1696326867167437</v>
+        <v>0.1575168212364948</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>177.807334527859</v>
+        <v>179.453674</v>
       </c>
       <c r="N9">
-        <v>177.807334527859</v>
+        <v>538.361022</v>
       </c>
       <c r="O9">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701915</v>
       </c>
       <c r="P9">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701916</v>
       </c>
       <c r="Q9">
-        <v>11625.96492986902</v>
+        <v>11739.38643283112</v>
       </c>
       <c r="R9">
-        <v>11625.96492986902</v>
+        <v>105654.4778954801</v>
       </c>
       <c r="S9">
-        <v>0.09430863017831796</v>
+        <v>0.03856990501567267</v>
       </c>
       <c r="T9">
-        <v>0.09430863017831796</v>
+        <v>0.03856990501567267</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H10">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I10">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J10">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>81.0889055401526</v>
+        <v>490.031855</v>
       </c>
       <c r="N10">
-        <v>81.0889055401526</v>
+        <v>1470.095565</v>
       </c>
       <c r="O10">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677429</v>
       </c>
       <c r="P10">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677431</v>
       </c>
       <c r="Q10">
-        <v>9208.227511426116</v>
+        <v>61894.42574101322</v>
       </c>
       <c r="R10">
-        <v>9208.227511426116</v>
+        <v>557049.8316691191</v>
       </c>
       <c r="S10">
-        <v>0.07469619323741433</v>
+        <v>0.2033549313236776</v>
       </c>
       <c r="T10">
-        <v>0.07469619323741433</v>
+        <v>0.2033549313236777</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H11">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I11">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J11">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.3306217132912</v>
+        <v>62.79306433333334</v>
       </c>
       <c r="N11">
-        <v>60.3306217132912</v>
+        <v>188.379193</v>
       </c>
       <c r="O11">
-        <v>0.1886383657658251</v>
+        <v>0.0856802950924601</v>
       </c>
       <c r="P11">
-        <v>0.1886383657658251</v>
+        <v>0.08568029509246011</v>
       </c>
       <c r="Q11">
-        <v>6850.975320744529</v>
+        <v>7931.200018476688</v>
       </c>
       <c r="R11">
-        <v>6850.975320744529</v>
+        <v>71380.8001662902</v>
       </c>
       <c r="S11">
-        <v>0.05557440623486881</v>
+        <v>0.02605805960330532</v>
       </c>
       <c r="T11">
-        <v>0.05557440623486881</v>
+        <v>0.02605805960330533</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H12">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I12">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J12">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.594726305318921</v>
+        <v>0.5977846666666666</v>
       </c>
       <c r="N12">
-        <v>0.594726305318921</v>
+        <v>1.793354</v>
       </c>
       <c r="O12">
-        <v>0.001859556476087046</v>
+        <v>0.0008156691696053909</v>
       </c>
       <c r="P12">
-        <v>0.001859556476087046</v>
+        <v>0.000815669169605391</v>
       </c>
       <c r="Q12">
-        <v>67.53544260989899</v>
+        <v>75.50435401820222</v>
       </c>
       <c r="R12">
-        <v>67.53544260989899</v>
+        <v>679.53918616382</v>
       </c>
       <c r="S12">
-        <v>0.0005478405551235167</v>
+        <v>0.0002480705256117432</v>
       </c>
       <c r="T12">
-        <v>0.0005478405551235167</v>
+        <v>0.0002480705256117432</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>113.557180850918</v>
+        <v>126.3069433333333</v>
       </c>
       <c r="H13">
-        <v>113.557180850918</v>
+        <v>378.92083</v>
       </c>
       <c r="I13">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="J13">
-        <v>0.2946081832783616</v>
+        <v>0.3041313008456065</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>177.807334527859</v>
+        <v>179.453674</v>
       </c>
       <c r="N13">
-        <v>177.807334527859</v>
+        <v>538.361022</v>
       </c>
       <c r="O13">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701915</v>
       </c>
       <c r="P13">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701916</v>
       </c>
       <c r="Q13">
-        <v>20191.29964359976</v>
+        <v>22666.24503287648</v>
       </c>
       <c r="R13">
-        <v>20191.29964359976</v>
+        <v>203996.2052958883</v>
       </c>
       <c r="S13">
-        <v>0.1637897432509549</v>
+        <v>0.07447023939301177</v>
       </c>
       <c r="T13">
-        <v>0.1637897432509549</v>
+        <v>0.0744702393930118</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H14">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I14">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J14">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>81.0889055401526</v>
+        <v>490.031855</v>
       </c>
       <c r="N14">
-        <v>81.0889055401526</v>
+        <v>1470.095565</v>
       </c>
       <c r="O14">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677429</v>
       </c>
       <c r="P14">
-        <v>0.2535441901382535</v>
+        <v>0.6686419015677431</v>
       </c>
       <c r="Q14">
-        <v>4959.910032613273</v>
+        <v>29980.33853122788</v>
       </c>
       <c r="R14">
-        <v>4959.910032613273</v>
+        <v>269823.046781051</v>
       </c>
       <c r="S14">
-        <v>0.04023427937423892</v>
+        <v>0.09850078759255081</v>
       </c>
       <c r="T14">
-        <v>0.04023427937423892</v>
+        <v>0.09850078759255083</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H15">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I15">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J15">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>60.3306217132912</v>
+        <v>62.79306433333334</v>
       </c>
       <c r="N15">
-        <v>60.3306217132912</v>
+        <v>188.379193</v>
       </c>
       <c r="O15">
-        <v>0.1886383657658251</v>
+        <v>0.0856802950924601</v>
       </c>
       <c r="P15">
-        <v>0.1886383657658251</v>
+        <v>0.08568029509246011</v>
       </c>
       <c r="Q15">
-        <v>3690.202178908162</v>
+        <v>3841.703976829231</v>
       </c>
       <c r="R15">
-        <v>3690.202178908162</v>
+        <v>34575.33579146308</v>
       </c>
       <c r="S15">
-        <v>0.02993454002942651</v>
+        <v>0.01262196779469172</v>
       </c>
       <c r="T15">
-        <v>0.02993454002942651</v>
+        <v>0.01262196779469173</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H16">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I16">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J16">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.594726305318921</v>
+        <v>0.5977846666666666</v>
       </c>
       <c r="N16">
-        <v>0.594726305318921</v>
+        <v>1.793354</v>
       </c>
       <c r="O16">
-        <v>0.001859556476087046</v>
+        <v>0.0008156691696053909</v>
       </c>
       <c r="P16">
-        <v>0.001859556476087046</v>
+        <v>0.000815669169605391</v>
       </c>
       <c r="Q16">
-        <v>36.37722014819526</v>
+        <v>36.57269724933266</v>
       </c>
       <c r="R16">
-        <v>36.37722014819526</v>
+        <v>329.1542752439939</v>
       </c>
       <c r="S16">
-        <v>0.0002950882634315717</v>
+        <v>0.0001201600668948697</v>
       </c>
       <c r="T16">
-        <v>0.0002950882634315717</v>
+        <v>0.0001201600668948698</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.1663210839279</v>
+        <v>61.180387</v>
       </c>
       <c r="H17">
-        <v>61.1663210839279</v>
+        <v>183.541161</v>
       </c>
       <c r="I17">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="J17">
-        <v>0.158687443606181</v>
+        <v>0.1473147096548978</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>177.807334527859</v>
+        <v>179.453674</v>
       </c>
       <c r="N17">
-        <v>177.807334527859</v>
+        <v>538.361022</v>
       </c>
       <c r="O17">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701915</v>
       </c>
       <c r="P17">
-        <v>0.5559578876198344</v>
+        <v>0.2448621341701916</v>
       </c>
       <c r="Q17">
-        <v>10875.8205148084</v>
+        <v>10979.04522389184</v>
       </c>
       <c r="R17">
-        <v>10875.8205148084</v>
+        <v>98811.40701502655</v>
       </c>
       <c r="S17">
-        <v>0.08822353593908397</v>
+        <v>0.03607179420076039</v>
       </c>
       <c r="T17">
-        <v>0.08822353593908397</v>
+        <v>0.03607179420076041</v>
       </c>
     </row>
   </sheetData>
